--- a/biology/Zoologie/Eremias_scripta/Eremias_scripta.xlsx
+++ b/biology/Zoologie/Eremias_scripta/Eremias_scripta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias scripta est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias scripta est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord-est de l'Iran ;
 dans le nord-ouest du Pakistan ;
 en Afghanistan ;
@@ -548,9 +562,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 janvier 2013) :
 Eremias scripta lasdini (Zarewskij, 1918)
 Eremias scripta pherganensis Szczerbak &amp; Washetko, 1973
 Eremias scripta scripta (Strauch, 1867)</t>
@@ -581,7 +597,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strauch, 1867 : Bemerkungen über die Eidechsen-Gattung Scapteira (Fitz.). Bulletin de l'Académie impériale des sciences de Saint-Pétersbourg, vol. 12, p. 313-328 (texte intégral).
 Szczerbak &amp; Washetko, 1973 : New subspecies - Eremias scripta pherganensis ssp. n. (Reptilia, Sauria) from Uzbekistan. Vestnik Zoologii, vol. 1973, p. 84-86.</t>
